--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Agt-Agtr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Agt-Agtr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,16 @@
     <t>FAPs</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
+    <t>Agt</t>
+  </si>
+  <si>
+    <t>Agtr1a</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Agt</t>
-  </si>
-  <si>
-    <t>Agtr1a</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,40 +540,40 @@
         <v>10.842088</v>
       </c>
       <c r="I2">
-        <v>0.9241192353022275</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9439348023377215</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.024115666666667</v>
+        <v>0.5297143333333333</v>
       </c>
       <c r="N2">
-        <v>6.072347000000001</v>
+        <v>1.589143</v>
       </c>
       <c r="O2">
-        <v>0.04033801028669427</v>
+        <v>0.03463898003508423</v>
       </c>
       <c r="P2">
-        <v>0.05315356654931185</v>
+        <v>0.0369789110027492</v>
       </c>
       <c r="Q2">
-        <v>7.31521339339289</v>
+        <v>1.914403138953778</v>
       </c>
       <c r="R2">
-        <v>65.83692054053601</v>
+        <v>17.229628250584</v>
       </c>
       <c r="S2">
-        <v>0.03727713121975329</v>
+        <v>0.03463898003508423</v>
       </c>
       <c r="T2">
-        <v>0.05017350133426961</v>
+        <v>0.0369789110027492</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -605,10 +602,10 @@
         <v>10.842088</v>
       </c>
       <c r="I3">
-        <v>0.9241192353022275</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9439348023377215</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +620,10 @@
         <v>35.579165</v>
       </c>
       <c r="O3">
-        <v>0.2363489312718777</v>
+        <v>0.7755286881671239</v>
       </c>
       <c r="P3">
-        <v>0.3114379851145606</v>
+        <v>0.8279171705045608</v>
       </c>
       <c r="Q3">
         <v>42.86138198850222</v>
@@ -635,10 +632,10 @@
         <v>385.7524378965201</v>
       </c>
       <c r="S3">
-        <v>0.2184145936314663</v>
+        <v>0.7755286881671239</v>
       </c>
       <c r="T3">
-        <v>0.293977152919571</v>
+        <v>0.8279171705045608</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,10 +664,10 @@
         <v>10.842088</v>
       </c>
       <c r="I4">
-        <v>0.9241192353022275</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9439348023377215</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,400 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>36.29503</v>
+        <v>2.9029985</v>
       </c>
       <c r="N4">
-        <v>72.59005999999999</v>
+        <v>5.805997</v>
       </c>
       <c r="O4">
-        <v>0.7233130584414281</v>
+        <v>0.1898323317977919</v>
       </c>
       <c r="P4">
-        <v>0.6354084483361276</v>
+        <v>0.13510391849269</v>
       </c>
       <c r="Q4">
-        <v>131.1713030742133</v>
+        <v>10.49152173362267</v>
       </c>
       <c r="R4">
-        <v>787.02781844528</v>
+        <v>62.949130401736</v>
       </c>
       <c r="S4">
-        <v>0.6684275104510079</v>
+        <v>0.1898323317977919</v>
       </c>
       <c r="T4">
-        <v>0.599784148083881</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.05046166666666666</v>
-      </c>
-      <c r="H5">
-        <v>0.151385</v>
-      </c>
-      <c r="I5">
-        <v>0.01290321480846011</v>
-      </c>
-      <c r="J5">
-        <v>0.01317989395141378</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>2.024115666666667</v>
-      </c>
-      <c r="N5">
-        <v>6.072347000000001</v>
-      </c>
-      <c r="O5">
-        <v>0.04033801028669427</v>
-      </c>
-      <c r="P5">
-        <v>0.05315356654931185</v>
-      </c>
-      <c r="Q5">
-        <v>0.1021402500661111</v>
-      </c>
-      <c r="R5">
-        <v>0.919262250595</v>
-      </c>
-      <c r="S5">
-        <v>0.0005204900116750898</v>
-      </c>
-      <c r="T5">
-        <v>0.0007005583702593452</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.05046166666666666</v>
-      </c>
-      <c r="H6">
-        <v>0.151385</v>
-      </c>
-      <c r="I6">
-        <v>0.01290321480846011</v>
-      </c>
-      <c r="J6">
-        <v>0.01317989395141378</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>11.85972166666667</v>
-      </c>
-      <c r="N6">
-        <v>35.579165</v>
-      </c>
-      <c r="O6">
-        <v>0.2363489312718777</v>
-      </c>
-      <c r="P6">
-        <v>0.3114379851145606</v>
-      </c>
-      <c r="Q6">
-        <v>0.5984613215027778</v>
-      </c>
-      <c r="R6">
-        <v>5.386151893525001</v>
-      </c>
-      <c r="S6">
-        <v>0.003049661029951013</v>
-      </c>
-      <c r="T6">
-        <v>0.004104719616251894</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.05046166666666666</v>
-      </c>
-      <c r="H7">
-        <v>0.151385</v>
-      </c>
-      <c r="I7">
-        <v>0.01290321480846011</v>
-      </c>
-      <c r="J7">
-        <v>0.01317989395141378</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>36.29503</v>
-      </c>
-      <c r="N7">
-        <v>72.59005999999999</v>
-      </c>
-      <c r="O7">
-        <v>0.7233130584414281</v>
-      </c>
-      <c r="P7">
-        <v>0.6354084483361276</v>
-      </c>
-      <c r="Q7">
-        <v>1.831507705516666</v>
-      </c>
-      <c r="R7">
-        <v>10.9890462331</v>
-      </c>
-      <c r="S7">
-        <v>0.00933306376683401</v>
-      </c>
-      <c r="T7">
-        <v>0.008374615964902547</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.5</v>
-      </c>
-      <c r="G8">
-        <v>0.2462915</v>
-      </c>
-      <c r="H8">
-        <v>0.492583</v>
-      </c>
-      <c r="I8">
-        <v>0.06297754988931244</v>
-      </c>
-      <c r="J8">
-        <v>0.04288530371086472</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>2.024115666666667</v>
-      </c>
-      <c r="N8">
-        <v>6.072347000000001</v>
-      </c>
-      <c r="O8">
-        <v>0.04033801028669427</v>
-      </c>
-      <c r="P8">
-        <v>0.05315356654931185</v>
-      </c>
-      <c r="Q8">
-        <v>0.4985224837168334</v>
-      </c>
-      <c r="R8">
-        <v>2.991134902301</v>
-      </c>
-      <c r="S8">
-        <v>0.002540389055265887</v>
-      </c>
-      <c r="T8">
-        <v>0.002279506844782898</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.5</v>
-      </c>
-      <c r="G9">
-        <v>0.2462915</v>
-      </c>
-      <c r="H9">
-        <v>0.492583</v>
-      </c>
-      <c r="I9">
-        <v>0.06297754988931244</v>
-      </c>
-      <c r="J9">
-        <v>0.04288530371086472</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>11.85972166666667</v>
-      </c>
-      <c r="N9">
-        <v>35.579165</v>
-      </c>
-      <c r="O9">
-        <v>0.2363489312718777</v>
-      </c>
-      <c r="P9">
-        <v>0.3114379851145606</v>
-      </c>
-      <c r="Q9">
-        <v>2.920948638865833</v>
-      </c>
-      <c r="R9">
-        <v>17.525691833195</v>
-      </c>
-      <c r="S9">
-        <v>0.01488467661046035</v>
-      </c>
-      <c r="T9">
-        <v>0.0133561125787377</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.5</v>
-      </c>
-      <c r="G10">
-        <v>0.2462915</v>
-      </c>
-      <c r="H10">
-        <v>0.492583</v>
-      </c>
-      <c r="I10">
-        <v>0.06297754988931244</v>
-      </c>
-      <c r="J10">
-        <v>0.04288530371086472</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>36.29503</v>
-      </c>
-      <c r="N10">
-        <v>72.59005999999999</v>
-      </c>
-      <c r="O10">
-        <v>0.7233130584414281</v>
-      </c>
-      <c r="P10">
-        <v>0.6354084483361276</v>
-      </c>
-      <c r="Q10">
-        <v>8.939157381245</v>
-      </c>
-      <c r="R10">
-        <v>35.75662952498</v>
-      </c>
-      <c r="S10">
-        <v>0.0455524842235862</v>
-      </c>
-      <c r="T10">
-        <v>0.02724968428734413</v>
+        <v>0.13510391849269</v>
       </c>
     </row>
   </sheetData>
